--- a/config/参数.xlsx
+++ b/config/参数.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,10 @@
   </si>
   <si>
     <t>出生点配置(格式map,x,y例子1,50,50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,50,50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +417,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -452,8 +456,8 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
